--- a/model/db_schema.xlsx
+++ b/model/db_schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tom\Documents\Coding\Course\Main\1-Full-Stack Engineer\19-PROJECT_fullstack_ecommerce\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6066EE1C-FB6A-448D-A85E-4F77B9541E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27787EBE-23F0-47AD-BC0F-AA4C4B1BB1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CF7C30C-1427-407F-B670-830DB5003C08}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>users</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>date_modified</t>
+  </si>
+  <si>
+    <t>uuid</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
   <dimension ref="C2:S14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
@@ -616,7 +619,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>21</v>
@@ -625,7 +628,7 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>1</v>
@@ -634,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
@@ -661,7 +664,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>9</v>
@@ -774,7 +777,7 @@
         <v>23</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>1</v>
@@ -783,7 +786,7 @@
         <v>4</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
@@ -794,7 +797,7 @@
         <v>23</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>16</v>

--- a/model/db_schema.xlsx
+++ b/model/db_schema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tom\Documents\Coding\Course\Main\1-Full-Stack Engineer\19-PROJECT_fullstack_ecommerce\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27787EBE-23F0-47AD-BC0F-AA4C4B1BB1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8E408D-6EDD-4C33-B8E0-2751EC85E163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CF7C30C-1427-407F-B670-830DB5003C08}"/>
   </bookViews>
@@ -558,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AC7162-3C23-45C5-8D6A-B66B7F8137D4}">
-  <dimension ref="C2:S14"/>
+  <dimension ref="C2:Q14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="O2" sqref="O2:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,15 +572,18 @@
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -591,18 +594,18 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
-      <c r="M2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6"/>
-      <c r="Q2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L2" s="5"/>
+      <c r="M2" s="6"/>
+      <c r="O2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -621,26 +624,26 @@
       <c r="I3" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="M3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -657,24 +660,24 @@
       <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>33</v>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
@@ -689,22 +692,22 @@
       <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
+      <c r="K5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
@@ -712,36 +715,36 @@
       <c r="I6" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="Q7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1" t="s">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
         <v>28</v>
       </c>
@@ -749,27 +752,27 @@
       <c r="I8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1" t="s">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
-      <c r="Q10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="K10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G11" s="2" t="s">
         <v>30</v>
       </c>
@@ -779,17 +782,17 @@
       <c r="I11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S11" s="2" t="s">
+      <c r="K11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G12" s="2" t="s">
         <v>22</v>
       </c>
@@ -799,17 +802,17 @@
       <c r="I12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G13" s="3" t="s">
         <v>24</v>
       </c>
@@ -817,15 +820,15 @@
       <c r="I13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1" t="s">
+      <c r="K13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
@@ -833,20 +836,20 @@
       <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1" t="s">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G10:I10"/>
   </mergeCells>
